--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31770.39394363384</v>
+        <v>-34250.38278876595</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>282.1021187341947</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>89.51689165180166</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>97.06118990169992</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>57.18589472734812</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>9.218045444194331</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>261.331847568187</v>
       </c>
       <c r="X5" t="n">
-        <v>316.2883174616766</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.44847849679174</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.9095219288034</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>1.718475429350965</v>
       </c>
       <c r="X8" t="n">
-        <v>286.518779984379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>67.74995204254718</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>75.02170687244396</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,13 +1421,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>47.1510085709451</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846225</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>63.34420421319582</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>97.22826981530201</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186439</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4764219077143</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.40444476188276</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>127.5379405516743</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.778212738966</v>
+        <v>851.7941520284803</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.815695798554</v>
+        <v>482.8316350880687</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.815695798554</v>
+        <v>124.5659364813182</v>
       </c>
       <c r="E2" t="n">
-        <v>619.0274432003098</v>
+        <v>124.5659364813182</v>
       </c>
       <c r="F2" t="n">
-        <v>208.0415384107022</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000046</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1373.778212738966</v>
+        <v>1526.885119089337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.778212738966</v>
+        <v>1136.745787113525</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7249087127072</v>
+        <v>680.4536379130279</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>511.517454985121</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>663.7249087127072</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X4" t="n">
-        <v>663.7249087127072</v>
+        <v>1082.894681886798</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.7249087127072</v>
+        <v>862.1021027432677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X5" t="n">
-        <v>2068.760653318132</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.7094242895079</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C7" t="n">
-        <v>396.7094242895079</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1281.162922421235</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>991.7457523842741</v>
       </c>
       <c r="X7" t="n">
-        <v>617.502003433038</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.7094242895079</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250372</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1769.029795853549</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1769.029795853549</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1479.926928979193</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1225.242440773306</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1225.242440773306</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6375233676413</v>
+        <v>997.2528898752885</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.8580214762837</v>
+        <v>776.4603107317583</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,16 +5057,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2418223735984</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888054</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>402.724593490895</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057749</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.119525808646</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,13 +5598,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5701,22 +5701,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>210.4595134598044</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
         <v>484.8112968429803</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2318.136881002812</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7558,10 +7558,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>100.6317229292859</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>108.4333254800096</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>322.0308111211523</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.28295407562408</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>82.07684380973542</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>128.4813855737351</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016485</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457060021</v>
+        <v>191.2691783702302</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.81829093850963</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631857005</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038609</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,13 +24886,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>53.48834544997025</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1025816.010232501</v>
+        <v>1025816.0102325</v>
       </c>
     </row>
     <row r="3">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794697</v>
+        <v>298593.7657794696</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457132</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457134</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457132</v>
-      </c>
       <c r="E2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>322858.6398760026</v>
+      </c>
+      <c r="J2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="I2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760024</v>
-      </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121055</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95375.52669455684</v>
+        <v>95375.52669455676</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312026</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931201</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26439,25 +26439,25 @@
         <v>9947.14432176891</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768914</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768883</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
+        <v>9947.144321768857</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768963</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1004471.316930852</v>
+        <v>-1004657.710319391</v>
       </c>
       <c r="C6" t="n">
-        <v>-72090.15332090568</v>
+        <v>-72090.15332090604</v>
       </c>
       <c r="D6" t="n">
-        <v>131348.5882911996</v>
+        <v>131348.5882911998</v>
       </c>
       <c r="E6" t="n">
-        <v>-113623.4960770288</v>
+        <v>-113658.2340024641</v>
       </c>
       <c r="F6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="G6" t="n">
-        <v>211788.9657303263</v>
+        <v>211754.2278048907</v>
       </c>
       <c r="H6" t="n">
-        <v>211788.9657303263</v>
+        <v>211754.2278048907</v>
       </c>
       <c r="I6" t="n">
-        <v>211788.9657303263</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="J6" t="n">
-        <v>44183.78792034382</v>
+        <v>44149.04999490807</v>
       </c>
       <c r="K6" t="n">
-        <v>162678.873024272</v>
+        <v>162644.1350988362</v>
       </c>
       <c r="L6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048908</v>
       </c>
       <c r="M6" t="n">
-        <v>126733.9377948146</v>
+        <v>126699.1998693792</v>
       </c>
       <c r="N6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048906</v>
       </c>
       <c r="O6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048907</v>
       </c>
       <c r="P6" t="n">
-        <v>211788.9657303264</v>
+        <v>211754.2278048907</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>246.2497161406733</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>272.6699107767691</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>91.42957829086424</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>277.3049528923967</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>87.909121149226</v>
       </c>
       <c r="X5" t="n">
-        <v>53.44278321679246</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1669945214206</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.2281213950246</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>347.522493288062</v>
       </c>
       <c r="X8" t="n">
-        <v>83.21232069409007</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>122.0190732888947</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.5629464796508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>163.5723821283056</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,10 +34150,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34387,10 +34387,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>25.73094315394658</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
